--- a/1 NHI impact/output/sfig_13_cits.xlsx
+++ b/1 NHI impact/output/sfig_13_cits.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/1 NHI impact/output/sfig_13_cits.xlsx
+++ b/1 NHI impact/output/sfig_13_cits.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Last treated, quarterly</t>
+          <t>Last-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Never treated, quarterly</t>
+          <t>Never-treated, quarterly</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Last treated, monthly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Never treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>

--- a/1 NHI impact/output/sfig_13_cits.xlsx
+++ b/1 NHI impact/output/sfig_13_cits.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,19 +1419,19 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.8596337591550572</v>
+        <v>-0.1764414567878311</v>
       </c>
       <c r="B26">
-        <v>-11.01087326721422</v>
+        <v>-0.578086778510192</v>
       </c>
       <c r="C26">
-        <v>9.291605748904104</v>
+        <v>0.2252038649345297</v>
       </c>
       <c r="D26">
-        <v>-0.1804967741963171</v>
+        <v>-1.013019963059447</v>
       </c>
       <c r="E26">
-        <v>0.8591785918768337</v>
+        <v>0.3407051681827803</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1440,40 +1440,40 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>108.0505926650571</v>
+        <v>13.49042120266597</v>
       </c>
       <c r="B27">
-        <v>60.82244327816799</v>
+        <v>7.710499194743655</v>
       </c>
       <c r="C27">
-        <v>155.2787420519461</v>
+        <v>19.27034321058829</v>
       </c>
       <c r="D27">
-        <v>4.876421998811892</v>
+        <v>5.38224686013995</v>
       </c>
       <c r="E27">
-        <v>0.0002014011724806672</v>
+        <v>0.0006598621461007142</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1482,40 +1482,40 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>23.54836685829808</v>
+        <v>0.1888319024216457</v>
       </c>
       <c r="B28">
-        <v>10.73547761997165</v>
+        <v>-1.070323059101068</v>
       </c>
       <c r="C28">
-        <v>36.3612560966245</v>
+        <v>1.447986863944359</v>
       </c>
       <c r="D28">
-        <v>3.917317546822891</v>
+        <v>0.3458249072982982</v>
       </c>
       <c r="E28">
-        <v>0.001371914412649519</v>
+        <v>0.7383926453907179</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1524,40 +1524,40 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4.592211020450311</v>
+        <v>-1.891165755977967</v>
       </c>
       <c r="B29">
-        <v>-212.0485053763593</v>
+        <v>-8.306808733727928</v>
       </c>
       <c r="C29">
-        <v>221.2329274172599</v>
+        <v>4.524477221771994</v>
       </c>
       <c r="D29">
-        <v>0.04518110102038767</v>
+        <v>-0.6797504270057075</v>
       </c>
       <c r="E29">
-        <v>0.9645589658430195</v>
+        <v>0.515845804740559</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1566,40 +1566,40 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-225.1088055563083</v>
+        <v>51.2732625277216</v>
       </c>
       <c r="B30">
-        <v>-701.3869266125632</v>
+        <v>8.604705269829608</v>
       </c>
       <c r="C30">
-        <v>251.1693154999466</v>
+        <v>93.94181978561359</v>
       </c>
       <c r="D30">
-        <v>-1.007411510401557</v>
+        <v>2.771041793133649</v>
       </c>
       <c r="E30">
-        <v>0.3297125560369705</v>
+        <v>0.0242576397742426</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1608,40 +1608,40 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-161.0495904727518</v>
+        <v>8.866202965616257</v>
       </c>
       <c r="B31">
-        <v>-412.0559152475828</v>
+        <v>-0.2241997870615418</v>
       </c>
       <c r="C31">
-        <v>89.95673430207924</v>
+        <v>17.95660571829406</v>
       </c>
       <c r="D31">
-        <v>-1.367571421690945</v>
+        <v>2.24913034752479</v>
       </c>
       <c r="E31">
-        <v>0.1915888401353709</v>
+        <v>0.05464140749750025</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1650,40 +1650,40 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.077681248265191</v>
+        <v>-1.741549296852995</v>
       </c>
       <c r="B32">
-        <v>0.03258207039881018</v>
+        <v>-3.838670584461943</v>
       </c>
       <c r="C32">
-        <v>0.1227804261315718</v>
+        <v>0.355571990755954</v>
       </c>
       <c r="D32">
-        <v>3.671323273428989</v>
+        <v>-1.915015552001675</v>
       </c>
       <c r="E32">
-        <v>0.002268518061546788</v>
+        <v>0.09181855190538374</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1692,40 +1692,40 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>iplos</t>
+          <t>opu5r</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Inpatient average length of stay</t>
+          <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.1097598982101746</v>
+        <v>35.41868759785821</v>
       </c>
       <c r="B33">
-        <v>-0.04666400466391848</v>
+        <v>17.72938374485215</v>
       </c>
       <c r="C33">
-        <v>0.2661838010842678</v>
+        <v>53.10799145086428</v>
       </c>
       <c r="D33">
-        <v>1.495600613859317</v>
+        <v>4.617233145118135</v>
       </c>
       <c r="E33">
-        <v>0.1554986576055973</v>
+        <v>0.00171638400968838</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1734,40 +1734,40 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>iplos</t>
+          <t>opu5r</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Inpatient average length of stay</t>
+          <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.07553462049222597</v>
+        <v>3.324019237016848</v>
       </c>
       <c r="B34">
-        <v>-0.1480373198456411</v>
+        <v>1.339902239960785</v>
       </c>
       <c r="C34">
-        <v>-0.003031921138810803</v>
+        <v>5.30813623407291</v>
       </c>
       <c r="D34">
-        <v>-2.220582598413302</v>
+        <v>3.86328130721742</v>
       </c>
       <c r="E34">
-        <v>0.0422024617318302</v>
+        <v>0.004786635007452461</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1776,40 +1776,40 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>iplos</t>
+          <t>opu5r</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Inpatient average length of stay</t>
+          <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.003199547877118927</v>
+        <v>-9.540207057743203</v>
       </c>
       <c r="B35">
-        <v>0.001033667421288688</v>
+        <v>-37.74456996053578</v>
       </c>
       <c r="C35">
-        <v>0.005365428332949167</v>
+        <v>18.66415584504937</v>
       </c>
       <c r="D35">
-        <v>3.148684799442321</v>
+        <v>-0.7800125463455</v>
       </c>
       <c r="E35">
-        <v>0.006624153115664125</v>
+        <v>0.4578375997171378</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1818,40 +1818,40 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>delr</t>
+          <t>ipu5r</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Institutional birth rate</t>
+          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0003103326238607437</v>
+        <v>103.7899731336305</v>
       </c>
       <c r="B36">
-        <v>-0.009096534242562397</v>
+        <v>-125.2029187913411</v>
       </c>
       <c r="C36">
-        <v>0.008475868994840909</v>
+        <v>332.7828650586021</v>
       </c>
       <c r="D36">
-        <v>-0.0752837641117208</v>
+        <v>1.04518574889783</v>
       </c>
       <c r="E36">
-        <v>0.9409838169301727</v>
+        <v>0.3264872844440151</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,40 +1860,40 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>delr</t>
+          <t>ipu5r</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Institutional birth rate</t>
+          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.0003172060075442688</v>
+        <v>9.946995450610704</v>
       </c>
       <c r="B37">
-        <v>-0.004188070532493838</v>
+        <v>-36.32034577443079</v>
       </c>
       <c r="C37">
-        <v>0.004822482547582376</v>
+        <v>56.21433667565221</v>
       </c>
       <c r="D37">
-        <v>0.1500703884923662</v>
+        <v>0.4957668202803615</v>
       </c>
       <c r="E37">
-        <v>0.8827083992668938</v>
+        <v>0.6333899319040739</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1902,40 +1902,40 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>delr</t>
+          <t>ipu5r</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>model_2_q</t>
+          <t>model_1_m</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Institutional birth rate</t>
+          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Never-treated, quarterly</t>
+          <t>Last-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.1764414567878311</v>
+        <v>0.01351179039978152</v>
       </c>
       <c r="B38">
-        <v>-0.578086778510192</v>
+        <v>-0.01698120915059282</v>
       </c>
       <c r="C38">
-        <v>0.2252038649345297</v>
+        <v>0.04400478995015585</v>
       </c>
       <c r="D38">
-        <v>-1.013019963059447</v>
+        <v>1.021816318346603</v>
       </c>
       <c r="E38">
-        <v>0.3407051681827803</v>
+        <v>0.3367705353011421</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>opo5r</t>
+          <t>iplos</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
+          <t>Inpatient average length of stay</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1965,19 +1965,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>13.49042120266597</v>
+        <v>-0.04966927711742371</v>
       </c>
       <c r="B39">
-        <v>7.710499194743655</v>
+        <v>-0.1474707097535032</v>
       </c>
       <c r="C39">
-        <v>19.27034321058829</v>
+        <v>0.04813215551865574</v>
       </c>
       <c r="D39">
-        <v>5.38224686013995</v>
+        <v>-1.171123523840153</v>
       </c>
       <c r="E39">
-        <v>0.0006598621461007142</v>
+        <v>0.2752474145814295</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>opo5r</t>
+          <t>iplos</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
+          <t>Inpatient average length of stay</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2007,19 +2007,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.1888319024216457</v>
+        <v>-0.01265552561641424</v>
       </c>
       <c r="B40">
-        <v>-1.070323059101068</v>
+        <v>-0.0541408944560869</v>
       </c>
       <c r="C40">
-        <v>1.447986863944359</v>
+        <v>0.02882984322325842</v>
       </c>
       <c r="D40">
-        <v>0.3458249072982982</v>
+        <v>-0.7034695657984601</v>
       </c>
       <c r="E40">
-        <v>0.7383926453907179</v>
+        <v>0.5017201790051429</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>opo5r</t>
+          <t>iplos</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
+          <t>Inpatient average length of stay</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2049,19 +2049,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-1.891165755977967</v>
+        <v>-0.0003925082302282606</v>
       </c>
       <c r="B41">
-        <v>-8.306808733727928</v>
+        <v>-0.0007805372046391313</v>
       </c>
       <c r="C41">
-        <v>4.524477221771994</v>
+        <v>-4.479255817389999E-06</v>
       </c>
       <c r="D41">
-        <v>-0.6797504270057075</v>
+        <v>-2.332623751569725</v>
       </c>
       <c r="E41">
-        <v>0.515845804740559</v>
+        <v>0.04796482781166154</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ipo5r</t>
+          <t>delr</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
+          <t>Institutional birth rate</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2091,19 +2091,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>51.2732625277216</v>
+        <v>0.002667017326565128</v>
       </c>
       <c r="B42">
-        <v>8.604705269829608</v>
+        <v>-0.0001968682176531449</v>
       </c>
       <c r="C42">
-        <v>93.94181978561359</v>
+        <v>0.005530902870783402</v>
       </c>
       <c r="D42">
-        <v>2.771041793133649</v>
+        <v>2.147485606097814</v>
       </c>
       <c r="E42">
-        <v>0.0242576397742426</v>
+        <v>0.06402556380693732</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ipo5r</t>
+          <t>delr</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
+          <t>Institutional birth rate</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2133,19 +2133,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>8.866202965616257</v>
+        <v>-2.550838275263473E-05</v>
       </c>
       <c r="B43">
-        <v>-0.2241997870615418</v>
+        <v>-0.0005120949367234888</v>
       </c>
       <c r="C43">
-        <v>17.95660571829406</v>
+        <v>0.0004610781712182193</v>
       </c>
       <c r="D43">
-        <v>2.24913034752479</v>
+        <v>-0.1208879193843686</v>
       </c>
       <c r="E43">
-        <v>0.05464140749750025</v>
+        <v>0.9067609344808847</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ipo5r</t>
+          <t>delr</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
+          <t>Institutional birth rate</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2175,19 +2175,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-1.741549296852995</v>
+        <v>-0.01194852845382383</v>
       </c>
       <c r="B44">
-        <v>-3.838670584461943</v>
+        <v>-0.3853777285495493</v>
       </c>
       <c r="C44">
-        <v>0.355571990755954</v>
+        <v>0.3614806716419017</v>
       </c>
       <c r="D44">
-        <v>-1.915015552001675</v>
+        <v>-0.06819950217198444</v>
       </c>
       <c r="E44">
-        <v>0.09181855190538374</v>
+        <v>0.946527633741703</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2196,40 +2196,40 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Last-treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>35.41868759785821</v>
+        <v>11.77875859019501</v>
       </c>
       <c r="B45">
-        <v>17.72938374485215</v>
+        <v>8.02940044057874</v>
       </c>
       <c r="C45">
-        <v>53.10799145086428</v>
+        <v>15.52811673981127</v>
       </c>
       <c r="D45">
-        <v>4.617233145118135</v>
+        <v>6.696033999018988</v>
       </c>
       <c r="E45">
-        <v>0.00171638400968838</v>
+        <v>7.153875275170515E-06</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2238,40 +2238,40 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Last-treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3.324019237016848</v>
+        <v>0.0201245004871501</v>
       </c>
       <c r="B46">
-        <v>1.339902239960785</v>
+        <v>-0.8648163058626618</v>
       </c>
       <c r="C46">
-        <v>5.30813623407291</v>
+        <v>0.905065306836962</v>
       </c>
       <c r="D46">
-        <v>3.86328130721742</v>
+        <v>0.04847144250798359</v>
       </c>
       <c r="E46">
-        <v>0.004786635007452461</v>
+        <v>0.9619800327535819</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2280,40 +2280,40 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>opu5r</t>
+          <t>opo5r</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Last-treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-9.540207057743203</v>
+        <v>-4.871440415782066</v>
       </c>
       <c r="B47">
-        <v>-37.74456996053578</v>
+        <v>-12.0948255994032</v>
       </c>
       <c r="C47">
-        <v>18.66415584504937</v>
+        <v>2.351944767839065</v>
       </c>
       <c r="D47">
-        <v>-0.7800125463455</v>
+        <v>-1.437446459865376</v>
       </c>
       <c r="E47">
-        <v>0.4578375997171378</v>
+        <v>0.1711242570672333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2322,40 +2322,40 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Last-treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>103.7899731336305</v>
+        <v>25.78444172849791</v>
       </c>
       <c r="B48">
-        <v>-125.2029187913411</v>
+        <v>-17.05527851377558</v>
       </c>
       <c r="C48">
-        <v>332.7828650586021</v>
+        <v>68.6241619707714</v>
       </c>
       <c r="D48">
-        <v>1.04518574889783</v>
+        <v>1.282880380495285</v>
       </c>
       <c r="E48">
-        <v>0.3264872844440151</v>
+        <v>0.21900302334353</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2364,40 +2364,40 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Last-treated, monthly</t>
+          <t>Never-treated, monthly</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>9.946995450610704</v>
+        <v>11.8925543809242</v>
       </c>
       <c r="B49">
-        <v>-36.32034577443079</v>
+        <v>1.206638815057769</v>
       </c>
       <c r="C49">
-        <v>56.21433667565221</v>
+        <v>22.57846994679063</v>
       </c>
       <c r="D49">
-        <v>0.4957668202803615</v>
+        <v>2.372129882041653</v>
       </c>
       <c r="E49">
-        <v>0.6333899319040739</v>
+        <v>0.03149209975002232</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2406,1028 +2406,20 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ipu5r</t>
+          <t>ipo5r</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>model_1_m</t>
+          <t>model_2_m</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>0.01351179039978152</v>
-      </c>
-      <c r="B50">
-        <v>-0.01698120915059282</v>
-      </c>
-      <c r="C50">
-        <v>0.04400478995015585</v>
-      </c>
-      <c r="D50">
-        <v>1.021816318346603</v>
-      </c>
-      <c r="E50">
-        <v>0.3367705353011421</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>-0.04966927711742371</v>
-      </c>
-      <c r="B51">
-        <v>-0.1474707097535032</v>
-      </c>
-      <c r="C51">
-        <v>0.04813215551865574</v>
-      </c>
-      <c r="D51">
-        <v>-1.171123523840153</v>
-      </c>
-      <c r="E51">
-        <v>0.2752474145814295</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>-0.01265552561641424</v>
-      </c>
-      <c r="B52">
-        <v>-0.0541408944560869</v>
-      </c>
-      <c r="C52">
-        <v>0.02882984322325842</v>
-      </c>
-      <c r="D52">
-        <v>-0.7034695657984601</v>
-      </c>
-      <c r="E52">
-        <v>0.5017201790051429</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>-0.0003925082302282606</v>
-      </c>
-      <c r="B53">
-        <v>-0.0007805372046391313</v>
-      </c>
-      <c r="C53">
-        <v>-4.479255817389999E-06</v>
-      </c>
-      <c r="D53">
-        <v>-2.332623751569725</v>
-      </c>
-      <c r="E53">
-        <v>0.04796482781166154</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>0.002667017326565128</v>
-      </c>
-      <c r="B54">
-        <v>-0.0001968682176531449</v>
-      </c>
-      <c r="C54">
-        <v>0.005530902870783402</v>
-      </c>
-      <c r="D54">
-        <v>2.147485606097814</v>
-      </c>
-      <c r="E54">
-        <v>0.06402556380693732</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>-2.550838275263473E-05</v>
-      </c>
-      <c r="B55">
-        <v>-0.0005120949367234888</v>
-      </c>
-      <c r="C55">
-        <v>0.0004610781712182193</v>
-      </c>
-      <c r="D55">
-        <v>-0.1208879193843686</v>
-      </c>
-      <c r="E55">
-        <v>0.9067609344808847</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>model_1_m</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Last-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>-0.01194852845382383</v>
-      </c>
-      <c r="B56">
-        <v>-0.3853777285495493</v>
-      </c>
-      <c r="C56">
-        <v>0.3614806716419017</v>
-      </c>
-      <c r="D56">
-        <v>-0.06819950217198444</v>
-      </c>
-      <c r="E56">
-        <v>0.946527633741703</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>opo5r</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>11.77875859019501</v>
-      </c>
-      <c r="B57">
-        <v>8.02940044057874</v>
-      </c>
-      <c r="C57">
-        <v>15.52811673981127</v>
-      </c>
-      <c r="D57">
-        <v>6.696033999018988</v>
-      </c>
-      <c r="E57">
-        <v>7.153875275170515E-06</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>opo5r</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>0.0201245004871501</v>
-      </c>
-      <c r="B58">
-        <v>-0.8648163058626618</v>
-      </c>
-      <c r="C58">
-        <v>0.905065306836962</v>
-      </c>
-      <c r="D58">
-        <v>0.04847144250798359</v>
-      </c>
-      <c r="E58">
-        <v>0.9619800327535819</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>opo5r</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>-4.871440415782066</v>
-      </c>
-      <c r="B59">
-        <v>-12.0948255994032</v>
-      </c>
-      <c r="C59">
-        <v>2.351944767839065</v>
-      </c>
-      <c r="D59">
-        <v>-1.437446459865376</v>
-      </c>
-      <c r="E59">
-        <v>0.1711242570672333</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ipo5r</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>25.78444172849791</v>
-      </c>
-      <c r="B60">
-        <v>-17.05527851377558</v>
-      </c>
-      <c r="C60">
-        <v>68.6241619707714</v>
-      </c>
-      <c r="D60">
-        <v>1.282880380495285</v>
-      </c>
-      <c r="E60">
-        <v>0.21900302334353</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>ipo5r</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>11.8925543809242</v>
-      </c>
-      <c r="B61">
-        <v>1.206638815057769</v>
-      </c>
-      <c r="C61">
-        <v>22.57846994679063</v>
-      </c>
-      <c r="D61">
-        <v>2.372129882041653</v>
-      </c>
-      <c r="E61">
-        <v>0.03149209975002232</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ipo5r</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>-0.5685855164754268</v>
-      </c>
-      <c r="B62">
-        <v>-1.719474310539221</v>
-      </c>
-      <c r="C62">
-        <v>0.5823032775883676</v>
-      </c>
-      <c r="D62">
-        <v>-1.053022105136807</v>
-      </c>
-      <c r="E62">
-        <v>0.3089990119090186</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>opu5r</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>40.77797956104499</v>
-      </c>
-      <c r="B63">
-        <v>27.00619399985525</v>
-      </c>
-      <c r="C63">
-        <v>54.54976512223474</v>
-      </c>
-      <c r="D63">
-        <v>6.311179158145886</v>
-      </c>
-      <c r="E63">
-        <v>1.395924629255432E-05</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>opu5r</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>3.580802256160274</v>
-      </c>
-      <c r="B64">
-        <v>1.718797274313601</v>
-      </c>
-      <c r="C64">
-        <v>5.442807238006948</v>
-      </c>
-      <c r="D64">
-        <v>4.098968271321583</v>
-      </c>
-      <c r="E64">
-        <v>0.0009482401978357843</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>opu5r</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>-7.907834856804817</v>
-      </c>
-      <c r="B65">
-        <v>-33.55136644221253</v>
-      </c>
-      <c r="C65">
-        <v>17.7356967286029</v>
-      </c>
-      <c r="D65">
-        <v>-0.6572866516361456</v>
-      </c>
-      <c r="E65">
-        <v>0.5209554062269448</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>ipu5r</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>31.28824150227756</v>
-      </c>
-      <c r="B66">
-        <v>-138.4399607954445</v>
-      </c>
-      <c r="C66">
-        <v>201.0164437999996</v>
-      </c>
-      <c r="D66">
-        <v>0.3929182494634189</v>
-      </c>
-      <c r="E66">
-        <v>0.6999073948352763</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>ipu5r</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>-7.695628928596915</v>
-      </c>
-      <c r="B67">
-        <v>-34.49645634098064</v>
-      </c>
-      <c r="C67">
-        <v>19.1051984837868</v>
-      </c>
-      <c r="D67">
-        <v>-0.6120275516223569</v>
-      </c>
-      <c r="E67">
-        <v>0.5496848810301364</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>ipu5r</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &lt; 5</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>0.006565921431546551</v>
-      </c>
-      <c r="B68">
-        <v>-0.01330786706630598</v>
-      </c>
-      <c r="C68">
-        <v>0.02643970992939908</v>
-      </c>
-      <c r="D68">
-        <v>0.7041903587211524</v>
-      </c>
-      <c r="E68">
-        <v>0.4921028432504175</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>0.07169743979937789</v>
-      </c>
-      <c r="B69">
-        <v>-0.1764120426069701</v>
-      </c>
-      <c r="C69">
-        <v>0.3198069222057258</v>
-      </c>
-      <c r="D69">
-        <v>0.6159356506491724</v>
-      </c>
-      <c r="E69">
-        <v>0.5471704732095714</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>-0.02196850422620266</v>
-      </c>
-      <c r="B70">
-        <v>-0.09325164368770014</v>
-      </c>
-      <c r="C70">
-        <v>0.04931463523529483</v>
-      </c>
-      <c r="D70">
-        <v>-0.6568840640760405</v>
-      </c>
-      <c r="E70">
-        <v>0.5212071586328443</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>iplos</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Inpatient average length of stay</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>0.0001904362782689877</v>
-      </c>
-      <c r="B71">
-        <v>-5.266260774995583E-05</v>
-      </c>
-      <c r="C71">
-        <v>0.0004335351642879312</v>
-      </c>
-      <c r="D71">
-        <v>1.669712788165135</v>
-      </c>
-      <c r="E71">
-        <v>0.1157065422576856</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Parallel trend (beta5)</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>0.0004487802935560322</v>
-      </c>
-      <c r="B72">
-        <v>-0.002693283467940595</v>
-      </c>
-      <c r="C72">
-        <v>0.003590844055052659</v>
-      </c>
-      <c r="D72">
-        <v>0.3044344817180165</v>
-      </c>
-      <c r="E72">
-        <v>0.7649797262130201</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>DID of level (beta6)</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Never-treated, monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>0.0007231984853881018</v>
-      </c>
-      <c r="B73">
-        <v>0.0003784319659737491</v>
-      </c>
-      <c r="C73">
-        <v>0.001067965004802454</v>
-      </c>
-      <c r="D73">
-        <v>4.471028931836053</v>
-      </c>
-      <c r="E73">
-        <v>0.0004484772018381263</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>DID of slope (beta7)</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>delr</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>model_2_m</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Institutional birth rate</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
         <is>
           <t>Never-treated, monthly</t>
         </is>

--- a/1 NHI impact/output/sfig_13_cits.xlsx
+++ b/1 NHI impact/output/sfig_13_cits.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DID of level (beta6)</t>
+          <t>DiD of level (beta6)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DID of slope (beta7)</t>
+          <t>DiD of slope (beta7)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
